--- a/SavedData/FeatureSelectionMethodComparisonOver20DataSets.xlsx
+++ b/SavedData/FeatureSelectionMethodComparisonOver20DataSets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaany\OneDrive\Masaüstü\Chalmers\Statistical Learning\Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaany\OneDrive\Masaüstü\Chalmers\Statistical Learning\Project3\SavedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2295F10C-8268-4C8B-9B6B-513301B6A580}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06144DEC-E549-4439-AA98-8DED69283358}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{7FD02C21-0F8B-451B-9A8B-2B6061818DCD}"/>
+    <workbookView xWindow="3510" yWindow="3960" windowWidth="21600" windowHeight="11505" xr2:uid="{7FD02C21-0F8B-451B-9A8B-2B6061818DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Data Set / Method</t>
   </si>
@@ -107,58 +107,67 @@
     <t>Test Set Accuracy</t>
   </si>
   <si>
-    <t>5, 7, 10</t>
-  </si>
-  <si>
-    <t>1, 8, 11</t>
-  </si>
-  <si>
-    <t>1, 4, 8</t>
-  </si>
-  <si>
-    <t>4, 5, 8</t>
-  </si>
-  <si>
-    <t>0, 4, 8</t>
-  </si>
-  <si>
-    <t>0, 7, 10</t>
-  </si>
-  <si>
-    <t>4, 5, 10</t>
-  </si>
-  <si>
-    <t>0, 1, 8</t>
-  </si>
-  <si>
     <t>1, 6, 9</t>
   </si>
   <si>
-    <t>6, 9, 11</t>
-  </si>
-  <si>
-    <t>0, 4, 11</t>
-  </si>
-  <si>
-    <t>5, 8, 10</t>
-  </si>
-  <si>
-    <t>0, 2, 6</t>
-  </si>
-  <si>
-    <t>1, 3, 8</t>
-  </si>
-  <si>
-    <t>6, 7, 8</t>
-  </si>
-  <si>
-    <t>0, 2, 8</t>
-  </si>
-  <si>
     <t>Backward Wrapping</t>
   </si>
   <si>
-    <t>4, 9, 11</t>
+    <t>1, 3, 7</t>
+  </si>
+  <si>
+    <t>0, 3, 5</t>
+  </si>
+  <si>
+    <t>1, 8, 10</t>
+  </si>
+  <si>
+    <t>4, 8, 11</t>
+  </si>
+  <si>
+    <t>2, 4, 9</t>
+  </si>
+  <si>
+    <t>2, 6, 10</t>
+  </si>
+  <si>
+    <t>8, 9, 10</t>
+  </si>
+  <si>
+    <t>2, 3, 7</t>
+  </si>
+  <si>
+    <t>0, 3, 8</t>
+  </si>
+  <si>
+    <t>1, 2, 7</t>
+  </si>
+  <si>
+    <t>4, 10, 11</t>
+  </si>
+  <si>
+    <t>1, 7, 9</t>
+  </si>
+  <si>
+    <t>0, 2, 10</t>
+  </si>
+  <si>
+    <t>4, 6, 11</t>
+  </si>
+  <si>
+    <t>3, 9, 11</t>
+  </si>
+  <si>
+    <t>4, 7, 11</t>
+  </si>
+  <si>
+    <t>3, 9, 10</t>
+  </si>
+  <si>
+    <t>1, 6, 8</t>
+  </si>
+  <si>
+    <t>2. 7. 10</t>
   </si>
 </sst>
 </file>
@@ -294,6 +303,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,8 +314,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46867DC-1EE1-47F4-9877-117484881667}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,37 +652,37 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -682,10 +691,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -693,10 +702,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -704,10 +713,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -715,10 +724,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -726,10 +735,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -737,10 +746,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -748,10 +757,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G9" s="3">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -759,10 +768,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -770,10 +779,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G11" s="3">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -781,10 +790,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -792,10 +801,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" s="3">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -803,10 +812,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G14" s="3">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -814,10 +823,10 @@
         <v>13</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G15" s="3">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -825,10 +834,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G16" s="3">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -836,10 +845,10 @@
         <v>15</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" s="3">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -847,10 +856,10 @@
         <v>16</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -858,10 +867,10 @@
         <v>17</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G19" s="3">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -869,10 +878,10 @@
         <v>18</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G20" s="3">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -880,10 +889,10 @@
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G21" s="3">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -891,10 +900,10 @@
         <v>20</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G22" s="3">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
